--- a/data/derived/res_line/p_from_mw.xlsx
+++ b/data/derived/res_line/p_from_mw.xlsx
@@ -475,100 +475,100 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-6.073979766413292</v>
+        <v>-2.068311386191858</v>
       </c>
       <c r="C2">
-        <v>-5.213266015785142</v>
+        <v>-1.747632363453978</v>
       </c>
       <c r="D2">
-        <v>-3.256739172096021</v>
+        <v>-1.073648107386564</v>
       </c>
       <c r="E2">
-        <v>-2.935882849527845</v>
+        <v>-1.014934662668594</v>
       </c>
       <c r="F2">
-        <v>-3.108424952610641</v>
+        <v>-1.257629833630618</v>
       </c>
       <c r="G2">
-        <v>-1.595663800321756</v>
+        <v>-0.5743397125570608</v>
       </c>
       <c r="H2">
-        <v>-1.305803775744783</v>
+        <v>-0.4360045856182274</v>
       </c>
       <c r="I2">
-        <v>-1.051493961410575</v>
+        <v>-0.3915972046225515</v>
       </c>
       <c r="J2">
-        <v>-0.8193525921198972</v>
+        <v>-0.3473235173503597</v>
       </c>
       <c r="K2">
-        <v>-0.7492686361253748</v>
+        <v>-0.3174377810287823</v>
       </c>
       <c r="L2">
-        <v>-0.6848343483123885</v>
+        <v>-0.2770257237747727</v>
       </c>
       <c r="M2">
-        <v>-0.690025567915884</v>
+        <v>-0.3077532706131016</v>
       </c>
       <c r="N2">
-        <v>-0.6285669740075978</v>
+        <v>-0.2307719953579003</v>
       </c>
       <c r="O2">
-        <v>-0.2705015563688523</v>
+        <v>-0.1922345410434938</v>
       </c>
       <c r="P2">
-        <v>-0.2102608101120237</v>
+        <v>-0.1537233880517507</v>
       </c>
       <c r="Q2">
-        <v>-0.1500455193724188</v>
+        <v>-0.1152153429418769</v>
       </c>
       <c r="R2">
-        <v>-0.09000000000000162</v>
+        <v>-0.05760000000000417</v>
       </c>
       <c r="S2">
-        <v>0.4812160224815832</v>
+        <v>0.2307918323974721</v>
       </c>
       <c r="T2">
-        <v>-0.3893330482057588</v>
+        <v>-0.1728488506487779</v>
       </c>
       <c r="U2">
-        <v>-0.2990839994950991</v>
+        <v>-0.1152147581191077</v>
       </c>
       <c r="V2">
-        <v>-0.2088800000000071</v>
+        <v>-0.05759999999999961</v>
       </c>
       <c r="W2">
-        <v>-1.666374465239044</v>
+        <v>-0.5765423624135243</v>
       </c>
       <c r="X2">
-        <v>-1.561137610869044</v>
+        <v>-0.3072083291302838</v>
       </c>
       <c r="Y2">
-        <v>-1.133280000000007</v>
+        <v>-0.03840000000002662</v>
       </c>
       <c r="Z2">
-        <v>-1.438872324914026</v>
+        <v>-0.5536152342917546</v>
       </c>
       <c r="AA2">
-        <v>-1.37375314385977</v>
+        <v>-0.5147413962553683</v>
       </c>
       <c r="AB2">
-        <v>-1.296092618561282</v>
+        <v>-0.4748293701624408</v>
       </c>
       <c r="AC2">
-        <v>-1.223680044499954</v>
+        <v>-0.3972225422919597</v>
       </c>
       <c r="AD2">
-        <v>-1.097213497300029</v>
+        <v>-0.2689886532257599</v>
       </c>
       <c r="AE2">
-        <v>-0.4202106230934814</v>
+        <v>-0.1728029240679644</v>
       </c>
       <c r="AF2">
-        <v>-0.2700122360510134</v>
+        <v>-0.03840000013180043</v>
       </c>
       <c r="AG2">
-        <v>-0.05999999999998192</v>
+        <v>4.466602425396404E-14</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -576,100 +576,100 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-5.980952108759784</v>
+        <v>-1.953919302089107</v>
       </c>
       <c r="C3">
-        <v>-5.135263249405256</v>
+        <v>-1.654531664018823</v>
       </c>
       <c r="D3">
-        <v>-3.229688483301931</v>
+        <v>-1.023465519990902</v>
       </c>
       <c r="E3">
-        <v>-2.913540015938276</v>
+        <v>-0.969148858899356</v>
       </c>
       <c r="F3">
-        <v>-3.045164724846395</v>
+        <v>-1.172209176123006</v>
       </c>
       <c r="G3">
-        <v>-1.564020246635126</v>
+        <v>-0.531941574706509</v>
       </c>
       <c r="H3">
-        <v>-1.277822266903755</v>
+        <v>-0.4030822881325931</v>
       </c>
       <c r="I3">
-        <v>-1.025709930702355</v>
+        <v>-0.3619349149047062</v>
       </c>
       <c r="J3">
-        <v>-0.8030864072410602</v>
+        <v>-0.3209041318040819</v>
       </c>
       <c r="K3">
-        <v>-0.7333973362867512</v>
+        <v>-0.2929744951059277</v>
       </c>
       <c r="L3">
-        <v>-0.6697192240832444</v>
+        <v>-0.2552522978638849</v>
       </c>
       <c r="M3">
-        <v>-0.6751011389573678</v>
+        <v>-0.2884859321980321</v>
       </c>
       <c r="N3">
-        <v>-0.6137066608640437</v>
+        <v>-0.2163267111812491</v>
       </c>
       <c r="O3">
-        <v>-0.2705013616150908</v>
+        <v>-0.1802059849111614</v>
       </c>
       <c r="P3">
-        <v>-0.2102607088083301</v>
+        <v>-0.1441083631180758</v>
       </c>
       <c r="Q3">
-        <v>-0.1500455017045839</v>
+        <v>-0.1080134743983724</v>
       </c>
       <c r="R3">
-        <v>-0.08999999999997617</v>
+        <v>-0.05400000000000868</v>
       </c>
       <c r="S3">
-        <v>0.4736967467124829</v>
+        <v>0.2163442754688003</v>
       </c>
       <c r="T3">
-        <v>-0.3818777275500512</v>
+        <v>-0.1620429203067527</v>
       </c>
       <c r="U3">
-        <v>-0.2916401815034461</v>
+        <v>-0.1080129663464511</v>
       </c>
       <c r="V3">
-        <v>-0.2014500000000239</v>
+        <v>-0.05400000000000692</v>
       </c>
       <c r="W3">
-        <v>-1.620362945540823</v>
+        <v>-0.5404763839564831</v>
       </c>
       <c r="X3">
-        <v>-1.515958038503789</v>
+        <v>-0.2880073157543278</v>
       </c>
       <c r="Y3">
-        <v>-1.088699999999973</v>
+        <v>-0.03600000000000158</v>
       </c>
       <c r="Z3">
-        <v>-1.407778183346138</v>
+        <v>-0.518822230907544</v>
       </c>
       <c r="AA3">
-        <v>-1.342818529891508</v>
+        <v>-0.4824062761538105</v>
       </c>
       <c r="AB3">
-        <v>-1.265726160509675</v>
+        <v>-0.4450790311432528</v>
       </c>
       <c r="AC3">
-        <v>-1.193724611983517</v>
+        <v>-0.3723708492328579</v>
       </c>
       <c r="AD3">
-        <v>-1.067490969107117</v>
+        <v>-0.2521655693541961</v>
       </c>
       <c r="AE3">
-        <v>-0.4202103084607525</v>
+        <v>-0.1620025663854457</v>
       </c>
       <c r="AF3">
-        <v>-0.2700122177402763</v>
+        <v>-0.03600000013197584</v>
       </c>
       <c r="AG3">
-        <v>-0.05999999999998233</v>
+        <v>-1.525561617851162E-14</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -677,100 +677,100 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-5.925573807531309</v>
+        <v>-1.889721367431574</v>
       </c>
       <c r="C4">
-        <v>-5.088344192689209</v>
+        <v>-1.60118633099631</v>
       </c>
       <c r="D4">
-        <v>-3.208906731684278</v>
+        <v>-0.9917209846278008</v>
       </c>
       <c r="E4">
-        <v>-2.895827648216561</v>
+        <v>-0.9397541934661836</v>
       </c>
       <c r="F4">
-        <v>-3.013645360845616</v>
+        <v>-1.129632238663864</v>
       </c>
       <c r="G4">
-        <v>-1.548290587471097</v>
+        <v>-0.5108593617266667</v>
       </c>
       <c r="H4">
-        <v>-1.263887234119706</v>
+        <v>-0.386692333926461</v>
       </c>
       <c r="I4">
-        <v>-1.012851746315533</v>
+        <v>-0.347148264635099</v>
       </c>
       <c r="J4">
-        <v>-0.7949667376308518</v>
+        <v>-0.3077126675294144</v>
       </c>
       <c r="K4">
-        <v>-0.7254712468889022</v>
+        <v>-0.2807562012254404</v>
       </c>
       <c r="L4">
-        <v>-0.6621638506640595</v>
+        <v>-0.2443698399753099</v>
       </c>
       <c r="M4">
-        <v>-0.667639513161941</v>
+        <v>-0.2788539180025569</v>
       </c>
       <c r="N4">
-        <v>-0.606276504410127</v>
+        <v>-0.2091051826831208</v>
       </c>
       <c r="O4">
-        <v>-0.270501264311778</v>
+        <v>-0.1741924094009531</v>
       </c>
       <c r="P4">
-        <v>-0.210260658194676</v>
+        <v>-0.1393012204423501</v>
       </c>
       <c r="Q4">
-        <v>-0.1500454928773817</v>
+        <v>-0.1044125861297663</v>
       </c>
       <c r="R4">
-        <v>-0.09000000000000385</v>
+        <v>-0.05219999999999398</v>
       </c>
       <c r="S4">
-        <v>0.4699378697327132</v>
+        <v>0.2091216557216421</v>
       </c>
       <c r="T4">
-        <v>-0.378150367223128</v>
+        <v>-0.1566400997181399</v>
       </c>
       <c r="U4">
-        <v>-0.2879184622808104</v>
+        <v>-0.1044121141544425</v>
       </c>
       <c r="V4">
-        <v>-0.1977350000000223</v>
+        <v>-0.05219999999999386</v>
       </c>
       <c r="W4">
-        <v>-1.597376431978135</v>
+        <v>-0.5224450129205157</v>
       </c>
       <c r="X4">
-        <v>-1.493377761539811</v>
+        <v>-0.2784068339333381</v>
       </c>
       <c r="Y4">
-        <v>-1.066409999999971</v>
+        <v>-0.0348000000000072</v>
       </c>
       <c r="Z4">
-        <v>-1.392244692269191</v>
+        <v>-0.5014355162036097</v>
       </c>
       <c r="AA4">
-        <v>-1.327363337225995</v>
+        <v>-0.4662470642148167</v>
       </c>
       <c r="AB4">
-        <v>-1.25054960868475</v>
+        <v>-0.4302076109061762</v>
       </c>
       <c r="AC4">
-        <v>-1.178749464246349</v>
+        <v>-0.3599462934603878</v>
       </c>
       <c r="AD4">
-        <v>-1.052629710001789</v>
+        <v>-0.2437546041593378</v>
       </c>
       <c r="AE4">
-        <v>-0.4202101517656939</v>
+        <v>-0.1566023964823793</v>
       </c>
       <c r="AF4">
-        <v>-0.2700122086212042</v>
+        <v>-0.03480000013212554</v>
       </c>
       <c r="AG4">
-        <v>-0.06000000000001389</v>
+        <v>1.405219662256552E-14</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -778,100 +778,100 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-5.866316037996025</v>
+        <v>-1.822488974890278</v>
       </c>
       <c r="C5">
-        <v>-5.037934746634088</v>
+        <v>-1.544861395339108</v>
       </c>
       <c r="D5">
-        <v>-3.184903604765685</v>
+        <v>-0.9570354382168871</v>
       </c>
       <c r="E5">
-        <v>-2.875191558471725</v>
+        <v>-0.907461638728041</v>
       </c>
       <c r="F5">
-        <v>-2.982199068259165</v>
+        <v>-1.087143263164006</v>
       </c>
       <c r="G5">
-        <v>-1.532621640254091</v>
+        <v>-0.4898541489916755</v>
       </c>
       <c r="H5">
-        <v>-1.249988927491815</v>
+        <v>-0.3703492983325347</v>
       </c>
       <c r="I5">
-        <v>-1.000015861590026</v>
+        <v>-0.3323909455214439</v>
       </c>
       <c r="J5">
-        <v>-0.7868559255631913</v>
+        <v>-0.2945332359749968</v>
       </c>
       <c r="K5">
-        <v>-0.7175514710660538</v>
+        <v>-0.2685467271350482</v>
       </c>
       <c r="L5">
-        <v>-0.6546099352454077</v>
+        <v>-0.2334902151866257</v>
       </c>
       <c r="M5">
-        <v>-0.6601782795185507</v>
+        <v>-0.2692230055713873</v>
       </c>
       <c r="N5">
-        <v>-0.5988463480346188</v>
+        <v>-0.2018843954799925</v>
       </c>
       <c r="O5">
-        <v>-0.2705011670571127</v>
+        <v>-0.1681793015482319</v>
       </c>
       <c r="P5">
-        <v>-0.2102606076063546</v>
+        <v>-0.1344943239102577</v>
       </c>
       <c r="Q5">
-        <v>-0.1500454840545911</v>
+        <v>-0.1008117284812956</v>
       </c>
       <c r="R5">
-        <v>-0.08999999999998934</v>
+        <v>-0.05040000000003802</v>
       </c>
       <c r="S5">
-        <v>0.4661795008435177</v>
+        <v>0.2018998080173436</v>
       </c>
       <c r="T5">
-        <v>-0.3744232070001662</v>
+        <v>-0.1512373754579885</v>
       </c>
       <c r="U5">
-        <v>-0.2841968695996236</v>
+        <v>-0.1008112910734716</v>
       </c>
       <c r="V5">
-        <v>-0.1940200000000024</v>
+        <v>-0.05039999999998181</v>
       </c>
       <c r="W5">
-        <v>-1.574402754198208</v>
+        <v>-0.504414719650167</v>
       </c>
       <c r="X5">
-        <v>-1.470803819813585</v>
+        <v>-0.2688063686737837</v>
       </c>
       <c r="Y5">
-        <v>-1.044120000000014</v>
+        <v>-0.03359999999998192</v>
       </c>
       <c r="Z5">
-        <v>-1.376720225200559</v>
+        <v>-0.4840553086190334</v>
       </c>
       <c r="AA5">
-        <v>-1.311916194802914</v>
+        <v>-0.4500934025646092</v>
       </c>
       <c r="AB5">
-        <v>-1.235377494047174</v>
+        <v>-0.4153386831362509</v>
       </c>
       <c r="AC5">
-        <v>-1.163776023382048</v>
+        <v>-0.3475225956682638</v>
       </c>
       <c r="AD5">
-        <v>-1.037768454199781</v>
+        <v>-0.2353440223092796</v>
       </c>
       <c r="AE5">
-        <v>-0.4202099954819866</v>
+        <v>-0.1512022325199606</v>
       </c>
       <c r="AF5">
-        <v>-0.2700121995259335</v>
+        <v>-0.03360000013227903</v>
       </c>
       <c r="AG5">
-        <v>-0.06000000000004387</v>
+        <v>2.255527001528634E-15</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -879,100 +879,100 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-5.894733871727938</v>
+        <v>-1.845232900940309</v>
       </c>
       <c r="C6">
-        <v>-5.063229576179036</v>
+        <v>-1.566753433082542</v>
       </c>
       <c r="D6">
-        <v>-3.207960796878534</v>
+        <v>-0.9783526647576964</v>
       </c>
       <c r="E6">
-        <v>-2.895913780694147</v>
+        <v>-0.9281838609484367</v>
       </c>
       <c r="F6">
-        <v>-2.982199068259461</v>
+        <v>-1.087143263163771</v>
       </c>
       <c r="G6">
-        <v>-1.53262164025404</v>
+        <v>-0.4898541489914968</v>
       </c>
       <c r="H6">
-        <v>-1.249988927491762</v>
+        <v>-0.3703492983324299</v>
       </c>
       <c r="I6">
-        <v>-1.000015861590032</v>
+        <v>-0.3323909455212635</v>
       </c>
       <c r="J6">
-        <v>-0.7868559255631454</v>
+        <v>-0.2945332359748346</v>
       </c>
       <c r="K6">
-        <v>-0.7175514710660854</v>
+        <v>-0.2685467271349675</v>
       </c>
       <c r="L6">
-        <v>-0.6546099352454726</v>
+        <v>-0.2334902151865077</v>
       </c>
       <c r="M6">
-        <v>-0.660178279518594</v>
+        <v>-0.2692230055714411</v>
       </c>
       <c r="N6">
-        <v>-0.598846348034679</v>
+        <v>-0.2018843954800019</v>
       </c>
       <c r="O6">
-        <v>-0.2705011670571252</v>
+        <v>-0.1681793015483713</v>
       </c>
       <c r="P6">
-        <v>-0.2102606076063309</v>
+        <v>-0.1344943239103551</v>
       </c>
       <c r="Q6">
-        <v>-0.1500454840545858</v>
+        <v>-0.1008117284813058</v>
       </c>
       <c r="R6">
-        <v>-0.08999999999999493</v>
+        <v>-0.05039999999998441</v>
       </c>
       <c r="S6">
-        <v>0.4661795131941479</v>
+        <v>0.2018998084654654</v>
       </c>
       <c r="T6">
-        <v>-0.374423209307036</v>
+        <v>-0.1512373755138663</v>
       </c>
       <c r="U6">
-        <v>-0.2841968706113547</v>
+        <v>-0.10081129109037</v>
       </c>
       <c r="V6">
-        <v>-0.1940199999999974</v>
+        <v>-0.05039999999999478</v>
       </c>
       <c r="W6">
-        <v>-1.574403211046725</v>
+        <v>-0.5044147219988919</v>
       </c>
       <c r="X6">
-        <v>-1.470803970733675</v>
+        <v>-0.2688063687098428</v>
       </c>
       <c r="Y6">
-        <v>-1.044120000000015</v>
+        <v>-0.03359999999999011</v>
       </c>
       <c r="Z6">
-        <v>-1.376720225200627</v>
+        <v>-0.4840553086188392</v>
       </c>
       <c r="AA6">
-        <v>-1.311916194803265</v>
+        <v>-0.4500934025642847</v>
       </c>
       <c r="AB6">
-        <v>-1.235377494047359</v>
+        <v>-0.4153386831362045</v>
       </c>
       <c r="AC6">
-        <v>-1.163776023382155</v>
+        <v>-0.3475225956681682</v>
       </c>
       <c r="AD6">
-        <v>-1.037768454199935</v>
+        <v>-0.2353440223091633</v>
       </c>
       <c r="AE6">
-        <v>-0.4202099954819686</v>
+        <v>-0.1512022325198074</v>
       </c>
       <c r="AF6">
-        <v>-0.2700121995259718</v>
+        <v>-0.0336000001321794</v>
       </c>
       <c r="AG6">
-        <v>-0.05999999999998091</v>
+        <v>1.14037481059248E-15</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -980,100 +980,100 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-5.785351644566888</v>
+        <v>-1.812597950839396</v>
       </c>
       <c r="C7">
-        <v>-4.963422847525021</v>
+        <v>-1.526950805250239</v>
       </c>
       <c r="D7">
-        <v>-3.094932846449173</v>
+        <v>-0.9194270614877912</v>
       </c>
       <c r="E7">
-        <v>-2.793277514462917</v>
+        <v>-0.8694696183807555</v>
       </c>
       <c r="F7">
-        <v>-2.878268498738735</v>
+        <v>-1.022297256143622</v>
       </c>
       <c r="G7">
-        <v>-1.41440581075694</v>
+        <v>-0.4039154622097534</v>
       </c>
       <c r="H7">
-        <v>-1.14361071448846</v>
+        <v>-0.2830688724727719</v>
       </c>
       <c r="I7">
-        <v>-0.9007105372497126</v>
+        <v>-0.2454754200794715</v>
       </c>
       <c r="J7">
-        <v>-0.690844460453568</v>
+        <v>-0.2079621748416546</v>
       </c>
       <c r="K7">
-        <v>-0.6228596290038055</v>
+        <v>-0.1813625072536479</v>
       </c>
       <c r="L7">
-        <v>-0.5624366992577678</v>
+        <v>-0.1456390564832147</v>
       </c>
       <c r="M7">
-        <v>-0.5690515670711545</v>
+        <v>-0.180539473018071</v>
       </c>
       <c r="N7">
-        <v>-0.508067754240428</v>
+        <v>-0.1108977333541223</v>
       </c>
       <c r="O7">
-        <v>-0.2704999827673844</v>
+        <v>-0.1741919302374564</v>
       </c>
       <c r="P7">
-        <v>-0.2102599915835932</v>
+        <v>-0.139300968300538</v>
       </c>
       <c r="Q7">
-        <v>-0.15004537661796</v>
+        <v>-0.1044125547693559</v>
       </c>
       <c r="R7">
-        <v>-0.08999999999999928</v>
+        <v>-0.05219999999999846</v>
       </c>
       <c r="S7">
-        <v>0.469937808030793</v>
+        <v>0.2091216540932695</v>
       </c>
       <c r="T7">
-        <v>-0.3781503555845269</v>
+        <v>-0.1566400995149955</v>
       </c>
       <c r="U7">
-        <v>-0.2879184571407619</v>
+        <v>-0.1044121140930706</v>
       </c>
       <c r="V7">
-        <v>-0.1977350000000098</v>
+        <v>-0.05220000000001798</v>
       </c>
       <c r="W7">
-        <v>-1.597374118439179</v>
+        <v>-0.5224450043907907</v>
       </c>
       <c r="X7">
-        <v>-1.493376990777566</v>
+        <v>-0.2784068338023338</v>
       </c>
       <c r="Y7">
-        <v>-1.066409999999995</v>
+        <v>-0.03479999999998798</v>
       </c>
       <c r="Z7">
-        <v>-1.392256535336355</v>
+        <v>-0.5014365528588678</v>
       </c>
       <c r="AA7">
-        <v>-1.327373784667682</v>
+        <v>-0.4662479482578413</v>
       </c>
       <c r="AB7">
-        <v>-1.250555238716928</v>
+        <v>-0.4302080076109381</v>
       </c>
       <c r="AC7">
-        <v>-1.178751709824168</v>
+        <v>-0.3599464299056667</v>
       </c>
       <c r="AD7">
-        <v>-1.052630198494779</v>
+        <v>-0.243754665098485</v>
       </c>
       <c r="AE7">
-        <v>-0.4202102125584443</v>
+        <v>-0.1566023974262971</v>
       </c>
       <c r="AF7">
-        <v>-0.2700122121591418</v>
+        <v>-0.03480000013209793</v>
       </c>
       <c r="AG7">
-        <v>-0.05999999999996137</v>
+        <v>1.088689358803509E-15</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -1081,100 +1081,100 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-5.712680120099463</v>
+        <v>-1.859088515724491</v>
       </c>
       <c r="C8">
-        <v>-4.891376591667282</v>
+        <v>-1.546569834773065</v>
       </c>
       <c r="D8">
-        <v>-2.962949651263988</v>
+        <v>-0.8780392634201012</v>
       </c>
       <c r="E8">
-        <v>-2.671415180387538</v>
+        <v>-0.8249676853491015</v>
       </c>
       <c r="F8">
-        <v>-2.788435234953665</v>
+        <v>-1.002492893203023</v>
       </c>
       <c r="G8">
-        <v>-1.279112623347681</v>
+        <v>-0.3201063876415355</v>
       </c>
       <c r="H8">
-        <v>-1.020637185401867</v>
+        <v>-0.1893665018704878</v>
       </c>
       <c r="I8">
-        <v>-0.7850862825921776</v>
+        <v>-0.1494050325783519</v>
       </c>
       <c r="J8">
-        <v>-0.571382267348014</v>
+        <v>-0.1094965868272732</v>
       </c>
       <c r="K8">
-        <v>-0.5047710837828645</v>
+        <v>-0.08041873582630102</v>
       </c>
       <c r="L8">
-        <v>-0.4469679239979062</v>
+        <v>-0.04150169474705277</v>
       </c>
       <c r="M8">
-        <v>-0.4546737125386316</v>
+        <v>-0.07305269653309079</v>
       </c>
       <c r="N8">
-        <v>-0.3940449148064278</v>
+        <v>0.003747363188854578</v>
       </c>
       <c r="O8">
-        <v>-0.2704985054402064</v>
+        <v>-0.192233150342432</v>
       </c>
       <c r="P8">
-        <v>-0.2102592231364665</v>
+        <v>-0.153722656212897</v>
       </c>
       <c r="Q8">
-        <v>-0.1500452425981808</v>
+        <v>-0.1152152519149712</v>
       </c>
       <c r="R8">
-        <v>-0.08999999999999563</v>
+        <v>-0.05759999999996754</v>
       </c>
       <c r="S8">
-        <v>0.4812158540751111</v>
+        <v>0.2307918267961773</v>
       </c>
       <c r="T8">
-        <v>-0.3893330155323075</v>
+        <v>-0.1728488499501603</v>
       </c>
       <c r="U8">
-        <v>-0.2990839847840757</v>
+        <v>-0.1152147579080017</v>
       </c>
       <c r="V8">
-        <v>-0.2088800000000147</v>
+        <v>-0.05760000000001169</v>
       </c>
       <c r="W8">
-        <v>-1.666367898598266</v>
+        <v>-0.5765423331026788</v>
       </c>
       <c r="X8">
-        <v>-1.56113537114751</v>
+        <v>-0.3072083286801187</v>
       </c>
       <c r="Y8">
-        <v>-1.133279999999989</v>
+        <v>-0.03840000000000234</v>
       </c>
       <c r="Z8">
-        <v>-1.43890267901941</v>
+        <v>-0.5536182678067555</v>
       </c>
       <c r="AA8">
-        <v>-1.37377992393046</v>
+        <v>-0.5147439832986233</v>
       </c>
       <c r="AB8">
-        <v>-1.296107042217936</v>
+        <v>-0.474830531251505</v>
       </c>
       <c r="AC8">
-        <v>-1.223685774311296</v>
+        <v>-0.3972229417143064</v>
       </c>
       <c r="AD8">
-        <v>-1.097214693118125</v>
+        <v>-0.2689888316309105</v>
       </c>
       <c r="AE8">
-        <v>-0.420210771912832</v>
+        <v>-0.1728029268316624</v>
       </c>
       <c r="AF8">
-        <v>-0.2700122447118104</v>
+        <v>-0.03840000013166976</v>
       </c>
       <c r="AG8">
-        <v>-0.06000000000000696</v>
+        <v>1.510751706641403E-14</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -1182,100 +1182,100 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-5.853872020472763</v>
+        <v>-2.143775204641899</v>
       </c>
       <c r="C9">
-        <v>-5.003320416055001</v>
+        <v>-1.770108730869604</v>
       </c>
       <c r="D9">
-        <v>-2.932827483375729</v>
+        <v>-0.9746422541043787</v>
       </c>
       <c r="E9">
-        <v>-2.638834948364174</v>
+        <v>-0.910335588651132</v>
       </c>
       <c r="F9">
-        <v>-2.760512107119527</v>
+        <v>-1.082570646188485</v>
       </c>
       <c r="G9">
-        <v>-1.158369585036623</v>
+        <v>-0.2716023185873546</v>
       </c>
       <c r="H9">
-        <v>-0.9096464007634388</v>
+        <v>-0.1179094798380379</v>
       </c>
       <c r="I9">
-        <v>-0.6798956128308147</v>
+        <v>-0.07134923219470879</v>
       </c>
       <c r="J9">
-        <v>-0.4496992503843176</v>
+        <v>-0.02481099290015039</v>
       </c>
       <c r="K9">
-        <v>-0.384174643715669</v>
+        <v>0.009565254555008611</v>
       </c>
       <c r="L9">
-        <v>-0.3284399853470745</v>
+        <v>0.05550690618600446</v>
       </c>
       <c r="M9">
-        <v>-0.3370109970599541</v>
+        <v>0.0311158131465538</v>
       </c>
       <c r="N9">
-        <v>-0.2766528226825843</v>
+        <v>0.1223663502438738</v>
       </c>
       <c r="O9">
-        <v>-0.27049699618807</v>
+        <v>-0.2283281734234642</v>
       </c>
       <c r="P9">
-        <v>-0.2102584380862775</v>
+        <v>-0.1825726553694598</v>
       </c>
       <c r="Q9">
-        <v>-0.1500451056830371</v>
+        <v>-0.1368214702039774</v>
       </c>
       <c r="R9">
-        <v>-0.08999999999996428</v>
+        <v>-0.06840000000000439</v>
       </c>
       <c r="S9">
-        <v>0.5037858394786329</v>
+        <v>0.2741530610487374</v>
       </c>
       <c r="T9">
-        <v>-0.4117037749228157</v>
+        <v>-0.2052689575840877</v>
       </c>
       <c r="U9">
-        <v>-0.3214184743304484</v>
+        <v>-0.1368208333672662</v>
       </c>
       <c r="V9">
-        <v>-0.2311700000000165</v>
+        <v>-0.06839999999999437</v>
       </c>
       <c r="W9">
-        <v>-1.804710549011317</v>
+        <v>-0.6847662176779155</v>
       </c>
       <c r="X9">
-        <v>-1.696826468565506</v>
+        <v>-0.3648117676163461</v>
       </c>
       <c r="Y9">
-        <v>-1.267020000000004</v>
+        <v>-0.0455999999999864</v>
       </c>
       <c r="Z9">
-        <v>-1.532430302402189</v>
+        <v>-0.6581589985229296</v>
       </c>
       <c r="AA9">
-        <v>-1.466802257925593</v>
+        <v>-0.6118872966566398</v>
       </c>
       <c r="AB9">
-        <v>-1.387326528847486</v>
+        <v>-0.564143519135875</v>
       </c>
       <c r="AC9">
-        <v>-1.313598354965368</v>
+        <v>-0.4717993607678598</v>
       </c>
       <c r="AD9">
-        <v>-1.186383202842089</v>
+        <v>-0.3194676195480087</v>
       </c>
       <c r="AE9">
-        <v>-0.4202118309506378</v>
+        <v>-0.2052041476716076</v>
       </c>
       <c r="AF9">
-        <v>-0.2700123063448161</v>
+        <v>-0.04560000013090169</v>
       </c>
       <c r="AG9">
-        <v>-0.06000000000001347</v>
+        <v>-3.038300888126973E-14</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -1283,100 +1283,100 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-5.979962300636973</v>
+        <v>-2.397774026128775</v>
       </c>
       <c r="C10">
-        <v>-5.102885669112328</v>
+        <v>-1.967599892417943</v>
       </c>
       <c r="D10">
-        <v>-2.901896108859785</v>
+        <v>-1.055491878007074</v>
       </c>
       <c r="E10">
-        <v>-2.605913487640329</v>
+        <v>-0.9806924073309095</v>
       </c>
       <c r="F10">
-        <v>-2.751111846258089</v>
+        <v>-1.167869001149984</v>
       </c>
       <c r="G10">
-        <v>-1.063355120977297</v>
+        <v>-0.2387566303282608</v>
       </c>
       <c r="H10">
-        <v>-0.8216470933719547</v>
+        <v>-0.06364013085204417</v>
       </c>
       <c r="I10">
-        <v>-0.5960609592550714</v>
+        <v>-0.01079559558386269</v>
       </c>
       <c r="J10">
-        <v>-0.3495539134534101</v>
+        <v>0.0420635559402142</v>
       </c>
       <c r="K10">
-        <v>-0.2848003658198257</v>
+        <v>0.08134370069058787</v>
       </c>
       <c r="L10">
-        <v>-0.2305323553676882</v>
+        <v>0.1338170361463153</v>
       </c>
       <c r="M10">
-        <v>-0.2396235463047053</v>
+        <v>0.1161403513383951</v>
       </c>
       <c r="N10">
-        <v>-0.1794172508667572</v>
+        <v>0.2207043652098179</v>
       </c>
       <c r="O10">
-        <v>-0.2704957549782398</v>
+        <v>-0.2614294378903436</v>
       </c>
       <c r="P10">
-        <v>-0.2102577924628796</v>
+        <v>-0.2090259424000699</v>
       </c>
       <c r="Q10">
-        <v>-0.1500449930845791</v>
+        <v>-0.1566280978060938</v>
       </c>
       <c r="R10">
-        <v>-0.09000000000002159</v>
+        <v>-0.07830000000001715</v>
       </c>
       <c r="S10">
-        <v>0.5244911581583477</v>
+        <v>0.3139253792588728</v>
       </c>
       <c r="T10">
-        <v>-0.4322166628875403</v>
+        <v>-0.2349904501332211</v>
       </c>
       <c r="U10">
-        <v>-0.3418957761028493</v>
+        <v>-0.1566273275892987</v>
       </c>
       <c r="V10">
-        <v>-0.251602499999989</v>
+        <v>-0.07829999999999747</v>
       </c>
       <c r="W10">
-        <v>-1.931940045103489</v>
+        <v>-0.7840058132747585</v>
       </c>
       <c r="X10">
-        <v>-1.821414783478148</v>
+        <v>-0.4176154482547476</v>
       </c>
       <c r="Y10">
-        <v>-1.389615000000016</v>
+        <v>-0.05219999999998013</v>
       </c>
       <c r="Z10">
-        <v>-1.61845797291136</v>
+        <v>-0.7541991704092005</v>
       </c>
       <c r="AA10">
-        <v>-1.552335005936297</v>
+        <v>-0.7011154861749996</v>
       </c>
       <c r="AB10">
-        <v>-1.471088910631659</v>
+        <v>-0.6460947151881454</v>
       </c>
       <c r="AC10">
-        <v>-1.396073769568331</v>
+        <v>-0.5401889674225121</v>
       </c>
       <c r="AD10">
-        <v>-1.268121060278545</v>
+        <v>-0.3657523072937299</v>
       </c>
       <c r="AE10">
-        <v>-0.4202128088171241</v>
+        <v>-0.2349054599750346</v>
       </c>
       <c r="AF10">
-        <v>-0.2700123632542596</v>
+        <v>-0.05220000013051716</v>
       </c>
       <c r="AG10">
-        <v>-0.05999999999996571</v>
+        <v>1.395931078413251E-14</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -1384,100 +1384,100 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-6.083724315291072</v>
+        <v>-2.589482732355325</v>
       </c>
       <c r="C11">
-        <v>-5.186007460366931</v>
+        <v>-2.117456086838981</v>
       </c>
       <c r="D11">
-        <v>-2.888877629740709</v>
+        <v>-1.120030375574589</v>
       </c>
       <c r="E11">
-        <v>-2.590491786612279</v>
+        <v>-1.037155797202399</v>
       </c>
       <c r="F11">
-        <v>-2.757060839060579</v>
+        <v>-1.239803991742609</v>
       </c>
       <c r="G11">
-        <v>-1.006711414023786</v>
+        <v>-0.2246022516995837</v>
       </c>
       <c r="H11">
-        <v>-0.7688764300968109</v>
+        <v>-0.03371056254507193</v>
       </c>
       <c r="I11">
-        <v>-0.5455845223961313</v>
+        <v>0.02382039972744995</v>
       </c>
       <c r="J11">
-        <v>-0.2864693317953131</v>
+        <v>0.08139356920445834</v>
       </c>
       <c r="K11">
-        <v>-0.2221360513961765</v>
+        <v>0.124262365637208</v>
       </c>
       <c r="L11">
-        <v>-0.1686664120077711</v>
+        <v>0.1815286616824185</v>
       </c>
       <c r="M11">
-        <v>-0.1779955592789455</v>
+        <v>0.1687888247619935</v>
       </c>
       <c r="N11">
-        <v>-0.1178518051529881</v>
+        <v>0.2830582272392203</v>
       </c>
       <c r="O11">
-        <v>-0.2704949732231065</v>
+        <v>-0.2855116397908954</v>
       </c>
       <c r="P11">
-        <v>-0.2102573858288885</v>
+        <v>-0.2282692009320909</v>
       </c>
       <c r="Q11">
-        <v>-0.1500449221666392</v>
+        <v>-0.1710334783813965</v>
       </c>
       <c r="R11">
-        <v>-0.09000000000001514</v>
+        <v>-0.08550000000001319</v>
       </c>
       <c r="S11">
-        <v>0.5395593164313315</v>
+        <v>0.3428654711064912</v>
       </c>
       <c r="T11">
-        <v>-0.4471389583228692</v>
+        <v>-0.2566079249828189</v>
       </c>
       <c r="U11">
-        <v>-0.3567907810738145</v>
+        <v>-0.1710326080284278</v>
       </c>
       <c r="V11">
-        <v>-0.2664625000000036</v>
+        <v>-0.08550000000000765</v>
       </c>
       <c r="W11">
-        <v>-2.024723778133437</v>
+        <v>-0.8562008192467403</v>
       </c>
       <c r="X11">
-        <v>-1.912149248379213</v>
+        <v>-0.4560184441658995</v>
       </c>
       <c r="Y11">
-        <v>-1.478774999999961</v>
+        <v>-0.05699999999999531</v>
       </c>
       <c r="Z11">
-        <v>-1.681201681376698</v>
+        <v>-0.8241747657382058</v>
       </c>
       <c r="AA11">
-        <v>-1.614699548177629</v>
+        <v>-0.7661180952006658</v>
       </c>
       <c r="AB11">
-        <v>-1.532094577647101</v>
+        <v>-0.7057447586625347</v>
       </c>
       <c r="AC11">
-        <v>-1.456089547808737</v>
+        <v>-0.5899438107927933</v>
       </c>
       <c r="AD11">
-        <v>-1.327566787014961</v>
+        <v>-0.3994214750294675</v>
       </c>
       <c r="AE11">
-        <v>-0.4202135215192259</v>
+        <v>-0.2565065318133105</v>
       </c>
       <c r="AF11">
-        <v>-0.2700124047316474</v>
+        <v>-0.05700000012987436</v>
       </c>
       <c r="AG11">
-        <v>-0.06000000000002041</v>
+        <v>1.396347030246913E-15</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -1485,100 +1485,100 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-6.120109776344122</v>
+        <v>-2.667514239003218</v>
       </c>
       <c r="C12">
-        <v>-5.21374358567704</v>
+        <v>-2.175294321940858</v>
       </c>
       <c r="D12">
-        <v>-2.869621567398008</v>
+        <v>-1.135690760003463</v>
       </c>
       <c r="E12">
-        <v>-2.571264413820224</v>
+        <v>-1.049294412772307</v>
       </c>
       <c r="F12">
-        <v>-2.782896571341913</v>
+        <v>-1.294569749303152</v>
       </c>
       <c r="G12">
-        <v>-1.001005230916016</v>
+        <v>-0.2362464670403237</v>
       </c>
       <c r="H12">
-        <v>-0.7634117257128848</v>
+        <v>-0.03725156667270018</v>
       </c>
       <c r="I12">
-        <v>-0.5402562300793574</v>
+        <v>0.02273944369767113</v>
       </c>
       <c r="J12">
-        <v>-0.2738628726476082</v>
+        <v>0.08277488107114014</v>
       </c>
       <c r="K12">
-        <v>-0.2095566443217213</v>
+        <v>0.1274561341231826</v>
       </c>
       <c r="L12">
-        <v>-0.1561364817581488</v>
+        <v>0.1871490529874049</v>
       </c>
       <c r="M12">
-        <v>-0.1655052663321618</v>
+        <v>0.176834562736826</v>
       </c>
       <c r="N12">
-        <v>-0.1053710264458057</v>
+        <v>0.2959289521761173</v>
       </c>
       <c r="O12">
-        <v>-0.2704948151303272</v>
+        <v>-0.2975556670765493</v>
       </c>
       <c r="P12">
-        <v>-0.21025730359629</v>
+        <v>-0.2378923710591946</v>
       </c>
       <c r="Q12">
-        <v>-0.1500449078251004</v>
+        <v>-0.1782363604193456</v>
       </c>
       <c r="R12">
-        <v>-0.09000000000002201</v>
+        <v>-0.08910000000003723</v>
       </c>
       <c r="S12">
-        <v>0.5470964667992657</v>
+        <v>0.3573401883967795</v>
       </c>
       <c r="T12">
-        <v>-0.4546013156503182</v>
+        <v>-0.2674172457015249</v>
       </c>
       <c r="U12">
-        <v>-0.3642390485282835</v>
+        <v>-0.1782354245753461</v>
       </c>
       <c r="V12">
-        <v>-0.27389250000002</v>
+        <v>-0.08909999999998705</v>
       </c>
       <c r="W12">
-        <v>-2.071195833798325</v>
+        <v>-0.8923048928828785</v>
       </c>
       <c r="X12">
-        <v>-1.957556064940579</v>
+        <v>-0.4752200431530241</v>
       </c>
       <c r="Y12">
-        <v>-1.52335500000005</v>
+        <v>-0.05939999999999245</v>
       </c>
       <c r="Z12">
-        <v>-1.712627039327213</v>
+        <v>-0.8592028489185308</v>
       </c>
       <c r="AA12">
-        <v>-1.645929579166884</v>
+        <v>-0.7986537749964262</v>
       </c>
       <c r="AB12">
-        <v>-1.562623769775244</v>
+        <v>-0.7355852392702331</v>
       </c>
       <c r="AC12">
-        <v>-1.486107559764873</v>
+        <v>-0.6148265622304728</v>
       </c>
       <c r="AD12">
-        <v>-1.357289556013481</v>
+        <v>-0.4162584420366546</v>
       </c>
       <c r="AE12">
-        <v>-0.4202138661269865</v>
+        <v>-0.2673071046721562</v>
       </c>
       <c r="AF12">
-        <v>-0.2700124247869933</v>
+        <v>-0.05940000012972971</v>
       </c>
       <c r="AG12">
-        <v>-0.06000000000000151</v>
+        <v>-1.392165381199037E-14</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -1586,100 +1586,100 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-6.156535199448549</v>
+        <v>-2.705344975035916</v>
       </c>
       <c r="C13">
-        <v>-5.245019096772338</v>
+        <v>-2.207158575285936</v>
       </c>
       <c r="D13">
-        <v>-2.887052362824144</v>
+        <v>-1.156411294831462</v>
       </c>
       <c r="E13">
-        <v>-2.586525959259888</v>
+        <v>-1.068517441271382</v>
       </c>
       <c r="F13">
-        <v>-2.809448042090091</v>
+        <v>-1.324920095856441</v>
       </c>
       <c r="G13">
-        <v>-1.019506410861087</v>
+        <v>-0.2557819094409565</v>
       </c>
       <c r="H13">
-        <v>-0.7805122258055633</v>
+        <v>-0.05455587144281799</v>
       </c>
       <c r="I13">
-        <v>-0.5565198786694987</v>
+        <v>0.006160754719494137</v>
       </c>
       <c r="J13">
-        <v>-0.2874763091402204</v>
+        <v>0.06691048573669127</v>
       </c>
       <c r="K13">
-        <v>-0.223020761316632</v>
+        <v>0.1120616918648474</v>
       </c>
       <c r="L13">
-        <v>-0.1693148182675854</v>
+        <v>0.1723887382431346</v>
       </c>
       <c r="M13">
-        <v>-0.1786418359267694</v>
+        <v>0.1626302891464744</v>
       </c>
       <c r="N13">
-        <v>-0.1184975605546974</v>
+        <v>0.2828994192913986</v>
       </c>
       <c r="O13">
-        <v>-0.2704949814063444</v>
+        <v>-0.3005671890440627</v>
       </c>
       <c r="P13">
-        <v>-0.2102573900854196</v>
+        <v>-0.2402984348167025</v>
       </c>
       <c r="Q13">
-        <v>-0.1500449229089699</v>
+        <v>-0.1800371146785682</v>
       </c>
       <c r="R13">
-        <v>-0.08999999999998061</v>
+        <v>-0.08999999999997589</v>
       </c>
       <c r="S13">
-        <v>0.548981093151752</v>
+        <v>0.3609593564731873</v>
       </c>
       <c r="T13">
-        <v>-0.4564670352146821</v>
+        <v>-0.2701196369153728</v>
       </c>
       <c r="U13">
-        <v>-0.3661011971649557</v>
+        <v>-0.1800361471630972</v>
       </c>
       <c r="V13">
-        <v>-0.2757500000000265</v>
+        <v>-0.09000000000001544</v>
       </c>
       <c r="W13">
-        <v>-2.082823116544746</v>
+        <v>-0.9013316056977417</v>
       </c>
       <c r="X13">
-        <v>-1.968912242466507</v>
+        <v>-0.4800204535778119</v>
       </c>
       <c r="Y13">
-        <v>-1.534500000000009</v>
+        <v>-0.06000000000001202</v>
       </c>
       <c r="Z13">
-        <v>-1.720485971902391</v>
+        <v>-0.8679635830513921</v>
       </c>
       <c r="AA13">
-        <v>-1.653739430600819</v>
+        <v>-0.8067908637981287</v>
       </c>
       <c r="AB13">
-        <v>-1.570257399019954</v>
+        <v>-0.7430467849620621</v>
       </c>
       <c r="AC13">
-        <v>-1.493612565980001</v>
+        <v>-0.6210477417552879</v>
       </c>
       <c r="AD13">
-        <v>-1.364720148485496</v>
+        <v>-0.4204679036704302</v>
       </c>
       <c r="AE13">
-        <v>-0.4202139398614797</v>
+        <v>-0.2700072512952353</v>
       </c>
       <c r="AF13">
-        <v>-0.2700124290781778</v>
+        <v>-0.06000000012969284</v>
       </c>
       <c r="AG13">
-        <v>-0.06000000000000139</v>
+        <v>4.029280407375578E-14</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -1687,100 +1687,100 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-6.50330025588585</v>
+        <v>-2.958829450299996</v>
       </c>
       <c r="C14">
-        <v>-5.553687346232151</v>
+        <v>-2.451219525953364</v>
       </c>
       <c r="D14">
-        <v>-3.179279459528187</v>
+        <v>-1.401472888993604</v>
       </c>
       <c r="E14">
-        <v>-2.849326831946568</v>
+        <v>-1.304591984384353</v>
       </c>
       <c r="F14">
-        <v>-2.899126599074563</v>
+        <v>-1.390700136465154</v>
       </c>
       <c r="G14">
-        <v>-1.116277944910347</v>
+        <v>-0.3321757325060161</v>
       </c>
       <c r="H14">
-        <v>-0.8698658654462603</v>
+        <v>-0.13172032218937</v>
       </c>
       <c r="I14">
-        <v>-0.6414512424921878</v>
+        <v>-0.07092410774777175</v>
       </c>
       <c r="J14">
-        <v>-0.3700270008360451</v>
+        <v>-0.01014929868224627</v>
       </c>
       <c r="K14">
-        <v>-0.3047751080351028</v>
+        <v>0.03466135281268162</v>
       </c>
       <c r="L14">
-        <v>-0.2495486412868127</v>
+        <v>0.09457453246353842</v>
       </c>
       <c r="M14">
-        <v>-0.2585525707352617</v>
+        <v>0.0840391479810453</v>
       </c>
       <c r="N14">
-        <v>-0.1983218498630452</v>
+        <v>0.2029779709784219</v>
       </c>
       <c r="O14">
-        <v>-0.2704959956681618</v>
+        <v>-0.2975569642942686</v>
       </c>
       <c r="P14">
-        <v>-0.2102579176591101</v>
+        <v>-0.2378930538965243</v>
       </c>
       <c r="Q14">
-        <v>-0.1500450149191404</v>
+        <v>-0.1782364453715581</v>
       </c>
       <c r="R14">
-        <v>-0.08999999999996153</v>
+        <v>-0.0891000000000038</v>
       </c>
       <c r="S14">
-        <v>0.5470967194964438</v>
+        <v>0.3573402138086647</v>
       </c>
       <c r="T14">
-        <v>-0.4546013715827716</v>
+        <v>-0.2674172488727235</v>
       </c>
       <c r="U14">
-        <v>-0.3642390758746966</v>
+        <v>-0.1782354255337767</v>
       </c>
       <c r="V14">
-        <v>-0.2738925000000046</v>
+        <v>-0.08910000000001396</v>
       </c>
       <c r="W14">
-        <v>-2.071207700830338</v>
+        <v>-0.892305025744222</v>
       </c>
       <c r="X14">
-        <v>-1.957560529039078</v>
+        <v>-0.4752200451947695</v>
       </c>
       <c r="Y14">
-        <v>-1.523354999999995</v>
+        <v>-0.05939999999992913</v>
       </c>
       <c r="Z14">
-        <v>-1.712608299626408</v>
+        <v>-0.8591997822309927</v>
       </c>
       <c r="AA14">
-        <v>-1.645913032695172</v>
+        <v>-0.7986511589964447</v>
       </c>
       <c r="AB14">
-        <v>-1.562614872275332</v>
+        <v>-0.7355840640994388</v>
       </c>
       <c r="AC14">
-        <v>-1.486104089129705</v>
+        <v>-0.6148261575494508</v>
       </c>
       <c r="AD14">
-        <v>-1.357288985835349</v>
+        <v>-0.4162582611926029</v>
       </c>
       <c r="AE14">
-        <v>-0.4202137951670274</v>
+        <v>-0.2673071018697638</v>
       </c>
       <c r="AF14">
-        <v>-0.2700124206572518</v>
+        <v>-0.05940000012985133</v>
       </c>
       <c r="AG14">
-        <v>-0.06000000000003237</v>
+        <v>-5.893422873544463E-14</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -1788,100 +1788,100 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-6.806655068988117</v>
+        <v>-3.176411261630714</v>
       </c>
       <c r="C15">
-        <v>-5.819650461323699</v>
+        <v>-2.651951733057918</v>
       </c>
       <c r="D15">
-        <v>-3.408749690970442</v>
+        <v>-1.583787730641252</v>
       </c>
       <c r="E15">
-        <v>-3.053004031283525</v>
+        <v>-1.477883689967411</v>
       </c>
       <c r="F15">
-        <v>-3.096004173580698</v>
+        <v>-1.561137106867572</v>
       </c>
       <c r="G15">
-        <v>-1.30349223261348</v>
+        <v>-0.4913296145192822</v>
       </c>
       <c r="H15">
-        <v>-1.040869018515585</v>
+        <v>-0.2849227519488057</v>
       </c>
       <c r="I15">
-        <v>-0.8027737845826717</v>
+        <v>-0.2212699146600437</v>
       </c>
       <c r="J15">
-        <v>-0.5201756488612602</v>
+        <v>-0.1577361015552684</v>
       </c>
       <c r="K15">
-        <v>-0.4531704301795302</v>
+        <v>-0.1120839119735653</v>
       </c>
       <c r="L15">
-        <v>-0.3945949044045035</v>
+        <v>-0.05086662203411813</v>
       </c>
       <c r="M15">
-        <v>-0.4027148072746087</v>
+        <v>-0.06083265761580269</v>
       </c>
       <c r="N15">
-        <v>-0.3422173050797808</v>
+        <v>0.05917919158737644</v>
       </c>
       <c r="O15">
-        <v>-0.2704978376602519</v>
+        <v>-0.3005703916311849</v>
       </c>
       <c r="P15">
-        <v>-0.2102588757847883</v>
+        <v>-0.2403001206307183</v>
       </c>
       <c r="Q15">
-        <v>-0.1500451820189125</v>
+        <v>-0.1800373244135832</v>
       </c>
       <c r="R15">
-        <v>-0.08999999999997797</v>
+        <v>-0.08999999999998307</v>
       </c>
       <c r="S15">
-        <v>0.5489815382763721</v>
+        <v>0.3609594008431417</v>
       </c>
       <c r="T15">
-        <v>-0.4564671340454355</v>
+        <v>-0.2701196424524981</v>
       </c>
       <c r="U15">
-        <v>-0.3661012455720801</v>
+        <v>-0.1800361488366297</v>
       </c>
       <c r="V15">
-        <v>-0.2757500000000115</v>
+        <v>-0.08999999999998336</v>
       </c>
       <c r="W15">
-        <v>-2.082844124418108</v>
+        <v>-0.9013318379617016</v>
       </c>
       <c r="X15">
-        <v>-1.968920161707812</v>
+        <v>-0.4800204571470373</v>
       </c>
       <c r="Y15">
-        <v>-1.53450000000004</v>
+        <v>-0.05999999999992674</v>
       </c>
       <c r="Z15">
-        <v>-1.72044248587978</v>
+        <v>-0.8679562219494076</v>
       </c>
       <c r="AA15">
-        <v>-1.653701033076123</v>
+        <v>-0.8067845844569005</v>
       </c>
       <c r="AB15">
-        <v>-1.57023675194133</v>
+        <v>-0.7430439640561822</v>
       </c>
       <c r="AC15">
-        <v>-1.493604515499446</v>
+        <v>-0.6210467703223356</v>
       </c>
       <c r="AD15">
-        <v>-1.364718834761187</v>
+        <v>-0.4204674695499959</v>
       </c>
       <c r="AE15">
-        <v>-0.4202137763656364</v>
+        <v>-0.2700072445681688</v>
       </c>
       <c r="AF15">
-        <v>-0.2700124195631279</v>
+        <v>-0.06000000012985102</v>
       </c>
       <c r="AG15">
-        <v>-0.05999999999999776</v>
+        <v>-1.391526066568457E-14</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -1889,100 +1889,100 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-7.146412603655651</v>
+        <v>-3.398770118868911</v>
       </c>
       <c r="C16">
-        <v>-6.116661160185841</v>
+        <v>-2.860027297634961</v>
       </c>
       <c r="D16">
-        <v>-3.675636114435907</v>
+        <v>-1.782236727864771</v>
       </c>
       <c r="E16">
-        <v>-3.288470851917867</v>
+        <v>-1.666367125061316</v>
       </c>
       <c r="F16">
-        <v>-3.320063682361936</v>
+        <v>-1.743975671452844</v>
       </c>
       <c r="G16">
-        <v>-1.525151418831956</v>
+        <v>-0.6733411485550597</v>
       </c>
       <c r="H16">
-        <v>-1.240550367049594</v>
+        <v>-0.4600999039161636</v>
       </c>
       <c r="I16">
-        <v>-0.9893185662693013</v>
+        <v>-0.3924722730649107</v>
       </c>
       <c r="J16">
-        <v>-0.6939745870079596</v>
+        <v>-0.3250610942770628</v>
       </c>
       <c r="K16">
-        <v>-0.6245687638862778</v>
+        <v>-0.2786947784702201</v>
       </c>
       <c r="L16">
-        <v>-0.5614092437634771</v>
+        <v>-0.2161649471580084</v>
       </c>
       <c r="M16">
-        <v>-0.5680348981155787</v>
+        <v>-0.2256964188792032</v>
       </c>
       <c r="N16">
-        <v>-0.5070546419109475</v>
+        <v>-0.1056585049426528</v>
       </c>
       <c r="O16">
-        <v>-0.2704999695912972</v>
+        <v>-0.3005727814647748</v>
       </c>
       <c r="P16">
-        <v>-0.2102599847297956</v>
+        <v>-0.2403013786235414</v>
       </c>
       <c r="Q16">
-        <v>-0.1500453754226419</v>
+        <v>-0.1800374809231508</v>
       </c>
       <c r="R16">
-        <v>-0.09000000000001329</v>
+        <v>-0.09000000000002138</v>
       </c>
       <c r="S16">
-        <v>0.5489817908707281</v>
+        <v>0.3609594251144706</v>
       </c>
       <c r="T16">
-        <v>-0.4564671901288611</v>
+        <v>-0.2701196454814113</v>
       </c>
       <c r="U16">
-        <v>-0.3661012730415179</v>
+        <v>-0.1800361497520859</v>
       </c>
       <c r="V16">
-        <v>-0.2757499999999902</v>
+        <v>-0.0899999999999905</v>
       </c>
       <c r="W16">
-        <v>-2.082856063741483</v>
+        <v>-0.9013319654332254</v>
       </c>
       <c r="X16">
-        <v>-1.968924662428897</v>
+        <v>-0.4800204591054584</v>
       </c>
       <c r="Y16">
-        <v>-1.5345</v>
+        <v>-0.05999999999982882</v>
       </c>
       <c r="Z16">
-        <v>-1.720414179306406</v>
+        <v>-0.8679511109431266</v>
       </c>
       <c r="AA16">
-        <v>-1.653676038796876</v>
+        <v>-0.8067802245472826</v>
       </c>
       <c r="AB16">
-        <v>-1.570223312059794</v>
+        <v>-0.7430420054318752</v>
       </c>
       <c r="AC16">
-        <v>-1.493599275178763</v>
+        <v>-0.6210460958338713</v>
       </c>
       <c r="AD16">
-        <v>-1.364717979621264</v>
+        <v>-0.4204671681303744</v>
       </c>
       <c r="AE16">
-        <v>-0.4202136699415355</v>
+        <v>-0.2700072398973181</v>
       </c>
       <c r="AF16">
-        <v>-0.2700124133695289</v>
+        <v>-0.06000000012979709</v>
       </c>
       <c r="AG16">
-        <v>-0.05999999999998005</v>
+        <v>-4.372375929989739E-14</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -1990,100 +1990,100 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-7.381552972961397</v>
+        <v>-3.500793581857863</v>
       </c>
       <c r="C17">
-        <v>-6.32395550165888</v>
+        <v>-2.966850013746989</v>
       </c>
       <c r="D17">
-        <v>-3.893774610774364</v>
+        <v>-1.913601035451607</v>
       </c>
       <c r="E17">
-        <v>-3.481118737519329</v>
+        <v>-1.793019887799839</v>
       </c>
       <c r="F17">
-        <v>-3.488135546118679</v>
+        <v>-1.853324935008493</v>
       </c>
       <c r="G17">
-        <v>-1.714617655894485</v>
+        <v>-0.8142027112316949</v>
       </c>
       <c r="H17">
-        <v>-1.409089131971054</v>
+        <v>-0.5999148233736752</v>
       </c>
       <c r="I17">
-        <v>-1.145343744410305</v>
+        <v>-0.5299440206667165</v>
       </c>
       <c r="J17">
-        <v>-0.8433044022036754</v>
+        <v>-0.4602475075575594</v>
       </c>
       <c r="K17">
-        <v>-0.7715874089131202</v>
+        <v>-0.4144727279732919</v>
       </c>
       <c r="L17">
-        <v>-0.7040168381302571</v>
+        <v>-0.3523341041187149</v>
       </c>
       <c r="M17">
-        <v>-0.7089600081006387</v>
+        <v>-0.3629196284933294</v>
       </c>
       <c r="N17">
-        <v>-0.6474178202307309</v>
+        <v>-0.2463128887826849</v>
       </c>
       <c r="O17">
-        <v>-0.2705018037026916</v>
+        <v>-0.2915407096619788</v>
       </c>
       <c r="P17">
-        <v>-0.2102609387660957</v>
+        <v>-0.2330845002040311</v>
       </c>
       <c r="Q17">
-        <v>-0.1500455418101516</v>
+        <v>-0.1746353814777216</v>
       </c>
       <c r="R17">
-        <v>-0.09000000000004883</v>
+        <v>-0.08729999999998468</v>
       </c>
       <c r="S17">
-        <v>0.5433285303607224</v>
+        <v>0.3501025226973526</v>
       </c>
       <c r="T17">
-        <v>-0.4508702329430551</v>
+        <v>-0.2620125469918094</v>
       </c>
       <c r="U17">
-        <v>-0.3605149468894483</v>
+        <v>-0.174634004707579</v>
       </c>
       <c r="V17">
-        <v>-0.270177499999996</v>
+        <v>-0.08729999999995643</v>
       </c>
       <c r="W17">
-        <v>-2.047994804510448</v>
+        <v>-0.8742527405623769</v>
       </c>
       <c r="X17">
-        <v>-1.934864967444924</v>
+        <v>-0.4656192418774122</v>
       </c>
       <c r="Y17">
-        <v>-1.501064999999955</v>
+        <v>-0.0581999999997035</v>
       </c>
       <c r="Z17">
-        <v>-1.696816763534769</v>
+        <v>-0.8416695024817151</v>
       </c>
       <c r="AA17">
-        <v>-1.630228350107008</v>
+        <v>-0.7823694665872797</v>
       </c>
       <c r="AB17">
-        <v>-1.547312756074552</v>
+        <v>-0.7206575996857815</v>
       </c>
       <c r="AC17">
-        <v>-1.471080446438713</v>
+        <v>-0.602382638033548</v>
       </c>
       <c r="AD17">
-        <v>-1.342425304756413</v>
+        <v>-0.4078388195665751</v>
       </c>
       <c r="AE17">
-        <v>-0.4202133370493113</v>
+        <v>-0.2619068005923142</v>
       </c>
       <c r="AF17">
-        <v>-0.2700123939958824</v>
+        <v>-0.05820000012989211</v>
       </c>
       <c r="AG17">
-        <v>-0.06000000000002777</v>
+        <v>-3.202378734327607E-14</v>
       </c>
     </row>
     <row r="18" spans="1:33">
@@ -2091,100 +2091,100 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-7.396401438822429</v>
+        <v>-3.501753159344697</v>
       </c>
       <c r="C18">
-        <v>-6.337819008179685</v>
+        <v>-2.971653857513235</v>
       </c>
       <c r="D18">
-        <v>-3.917100283509788</v>
+        <v>-1.928103962254039</v>
       </c>
       <c r="E18">
-        <v>-3.502054782909974</v>
+        <v>-1.807526300870554</v>
       </c>
       <c r="F18">
-        <v>-3.473239356235798</v>
+        <v>-1.832459865737901</v>
       </c>
       <c r="G18">
-        <v>-1.707707749932528</v>
+        <v>-0.804174016820729</v>
       </c>
       <c r="H18">
-        <v>-1.403058086252841</v>
+        <v>-0.5923834037240877</v>
       </c>
       <c r="I18">
-        <v>-1.139840515298279</v>
+        <v>-0.5233018790016357</v>
       </c>
       <c r="J18">
-        <v>-0.8401548688341661</v>
+        <v>-0.4544886371983138</v>
       </c>
       <c r="K18">
-        <v>-0.7685317855062629</v>
+        <v>-0.4092163168102221</v>
       </c>
       <c r="L18">
-        <v>-0.7011410700664774</v>
+        <v>-0.3477751435428273</v>
       </c>
       <c r="M18">
-        <v>-0.7061218572177301</v>
+        <v>-0.3589869313631008</v>
       </c>
       <c r="N18">
-        <v>-0.6445923600431367</v>
+        <v>-0.2435847641535289</v>
       </c>
       <c r="O18">
-        <v>-0.2705017666109422</v>
+        <v>-0.2885295298005295</v>
       </c>
       <c r="P18">
-        <v>-0.2102609194723302</v>
+        <v>-0.2306786165685358</v>
       </c>
       <c r="Q18">
-        <v>-0.1500455384452724</v>
+        <v>-0.1728346496320532</v>
       </c>
       <c r="R18">
-        <v>-0.08999999999998479</v>
+        <v>-0.08639999999997927</v>
       </c>
       <c r="S18">
-        <v>0.5414443174900557</v>
+        <v>0.346483941015388</v>
       </c>
       <c r="T18">
-        <v>-0.4490046705472792</v>
+        <v>-0.2593102290050739</v>
       </c>
       <c r="U18">
-        <v>-0.3586528966307371</v>
+        <v>-0.1728333042568131</v>
       </c>
       <c r="V18">
-        <v>-0.2683199999999725</v>
+        <v>-0.08639999999996367</v>
       </c>
       <c r="W18">
-        <v>-2.03637877605854</v>
+        <v>-0.8652268605172895</v>
       </c>
       <c r="X18">
-        <v>-1.923514172529441</v>
+        <v>-0.4608188442582808</v>
       </c>
       <c r="Y18">
-        <v>-1.489920000000006</v>
+        <v>-0.05759999999970798</v>
       </c>
       <c r="Z18">
-        <v>-1.68896319338034</v>
+        <v>-0.8329138141204542</v>
       </c>
       <c r="AA18">
-        <v>-1.622423300343772</v>
+        <v>-0.7742366835923363</v>
       </c>
       <c r="AB18">
-        <v>-1.539681793109507</v>
+        <v>-0.7131979908320818</v>
       </c>
       <c r="AC18">
-        <v>-1.46357645401041</v>
+        <v>-0.5961621264543538</v>
       </c>
       <c r="AD18">
-        <v>-1.33499464132656</v>
+        <v>-0.4036296566364789</v>
       </c>
       <c r="AE18">
-        <v>-0.420213254484299</v>
+        <v>-0.2592066585993721</v>
       </c>
       <c r="AF18">
-        <v>-0.2700123891908918</v>
+        <v>-0.05760000013005197</v>
       </c>
       <c r="AG18">
-        <v>-0.0599999999999915</v>
+        <v>-7.379862701797866E-14</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -2192,100 +2192,100 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-7.695554548106486</v>
+        <v>-3.700019865773816</v>
       </c>
       <c r="C19">
-        <v>-6.595984477089719</v>
+        <v>-3.155553549062214</v>
       </c>
       <c r="D19">
-        <v>-4.146189781183555</v>
+        <v>-2.102167230874127</v>
       </c>
       <c r="E19">
-        <v>-3.700822182928835</v>
+        <v>-1.971396392970195</v>
       </c>
       <c r="F19">
-        <v>-3.625698610565131</v>
+        <v>-1.9545121603354</v>
       </c>
       <c r="G19">
-        <v>-1.858170735310199</v>
+        <v>-0.9254095680078774</v>
       </c>
       <c r="H19">
-        <v>-1.535315504414081</v>
+        <v>-0.7066191735696956</v>
       </c>
       <c r="I19">
-        <v>-1.261201213528182</v>
+        <v>-0.6334117467830438</v>
       </c>
       <c r="J19">
-        <v>-0.9508376312275133</v>
+        <v>-0.5605166333185363</v>
       </c>
       <c r="K19">
-        <v>-0.8772010542751072</v>
+        <v>-0.5144841479818548</v>
       </c>
       <c r="L19">
-        <v>-0.8059662333471641</v>
+        <v>-0.4516241095178252</v>
       </c>
       <c r="M19">
-        <v>-0.8094777219768093</v>
+        <v>-0.4620519479320211</v>
       </c>
       <c r="N19">
-        <v>-0.7474494905306656</v>
+        <v>-0.3464419320450279</v>
       </c>
       <c r="O19">
-        <v>-0.2705031214762061</v>
+        <v>-0.2885309278708179</v>
       </c>
       <c r="P19">
-        <v>-0.2102616242254176</v>
+        <v>-0.2306793524829485</v>
       </c>
       <c r="Q19">
-        <v>-0.1500456613571742</v>
+        <v>-0.1728347411865736</v>
       </c>
       <c r="R19">
-        <v>-0.08999999999999156</v>
+        <v>-0.08640000000000482</v>
       </c>
       <c r="S19">
-        <v>0.5414445521855188</v>
+        <v>0.3464839636286459</v>
       </c>
       <c r="T19">
-        <v>-0.4490047220044576</v>
+        <v>-0.2593102318269555</v>
       </c>
       <c r="U19">
-        <v>-0.3586529216501084</v>
+        <v>-0.1728333051097014</v>
       </c>
       <c r="V19">
-        <v>-0.2683200000000226</v>
+        <v>-0.08639999999999662</v>
       </c>
       <c r="W19">
-        <v>-2.036389688990996</v>
+        <v>-0.8652269796172051</v>
       </c>
       <c r="X19">
-        <v>-1.923518251285776</v>
+        <v>-0.4608188460906085</v>
       </c>
       <c r="Y19">
-        <v>-1.489919999999983</v>
+        <v>-0.05759999999999857</v>
       </c>
       <c r="Z19">
-        <v>-1.688949621258812</v>
+        <v>-0.8329111389684605</v>
       </c>
       <c r="AA19">
-        <v>-1.62241131756766</v>
+        <v>-0.7742344016408409</v>
       </c>
       <c r="AB19">
-        <v>-1.539675349296161</v>
+        <v>-0.7131969658117643</v>
       </c>
       <c r="AC19">
-        <v>-1.463573937327697</v>
+        <v>-0.5961617735129799</v>
       </c>
       <c r="AD19">
-        <v>-1.334994219438348</v>
+        <v>-0.4036294989215189</v>
       </c>
       <c r="AE19">
-        <v>-0.4202132019794924</v>
+        <v>-0.2592066561560579</v>
       </c>
       <c r="AF19">
-        <v>-0.2700123861351606</v>
+        <v>-0.05760000013021013</v>
       </c>
       <c r="AG19">
-        <v>-0.060000000000018</v>
+        <v>-4.399853609289479E-14</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -2293,100 +2293,100 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-7.611746363487576</v>
+        <v>-3.600622466349577</v>
       </c>
       <c r="C20">
-        <v>-6.526756509896577</v>
+        <v>-3.075134352621493</v>
       </c>
       <c r="D20">
-        <v>-4.117726669089552</v>
+        <v>-2.055923214190441</v>
       </c>
       <c r="E20">
-        <v>-3.678125132048478</v>
+        <v>-1.930428385067277</v>
       </c>
       <c r="F20">
-        <v>-3.57631987311214</v>
+        <v>-1.888108789812485</v>
       </c>
       <c r="G20">
-        <v>-1.832817897063254</v>
+        <v>-0.8915524978412793</v>
       </c>
       <c r="H20">
-        <v>-1.513349638933011</v>
+        <v>-0.6806744267801366</v>
       </c>
       <c r="I20">
-        <v>-1.241268642019834</v>
+        <v>-0.6103834124365212</v>
       </c>
       <c r="J20">
-        <v>-0.938403851583085</v>
+        <v>-0.5403848012069383</v>
       </c>
       <c r="K20">
-        <v>-0.8651316463685146</v>
+        <v>-0.4959057500687478</v>
       </c>
       <c r="L20">
-        <v>-0.794594141298387</v>
+        <v>-0.4352243086896462</v>
       </c>
       <c r="M20">
-        <v>-0.7982747850600586</v>
+        <v>-0.4475742938743489</v>
       </c>
       <c r="N20">
-        <v>-0.7363042537436357</v>
+        <v>-0.3355896944947478</v>
       </c>
       <c r="O20">
-        <v>-0.2705029742103993</v>
+        <v>-0.2794979783220837</v>
       </c>
       <c r="P20">
-        <v>-0.2102615476227975</v>
+        <v>-0.2234620122882183</v>
       </c>
       <c r="Q20">
-        <v>-0.1500456479973206</v>
+        <v>-0.1674325843187673</v>
       </c>
       <c r="R20">
-        <v>-0.0900000000000328</v>
+        <v>-0.08370000000005225</v>
       </c>
       <c r="S20">
-        <v>0.5357925785040971</v>
+        <v>0.3356293743849054</v>
       </c>
       <c r="T20">
-        <v>-0.4434083143108871</v>
+        <v>-0.2512034221930101</v>
       </c>
       <c r="U20">
-        <v>-0.3530669508813885</v>
+        <v>-0.1674312473873742</v>
       </c>
       <c r="V20">
-        <v>-0.262747500000025</v>
+        <v>-0.08370000000000583</v>
       </c>
       <c r="W20">
-        <v>-2.001556774699758</v>
+        <v>-0.8381509175352062</v>
       </c>
       <c r="X20">
-        <v>-1.889473923877101</v>
+        <v>-0.4464176774955541</v>
       </c>
       <c r="Y20">
-        <v>-1.456485000000018</v>
+        <v>-0.05579999999959923</v>
       </c>
       <c r="Z20">
-        <v>-1.665403492436061</v>
+        <v>-0.8066544331685399</v>
       </c>
       <c r="AA20">
-        <v>-1.599009173281549</v>
+        <v>-0.7498448922332671</v>
       </c>
       <c r="AB20">
-        <v>-1.516789622623222</v>
+        <v>-0.6908221146318123</v>
       </c>
       <c r="AC20">
-        <v>-1.441064712628151</v>
+        <v>-0.5775016094213531</v>
       </c>
       <c r="AD20">
-        <v>-1.312702238037071</v>
+        <v>-0.3910026230119787</v>
       </c>
       <c r="AE20">
-        <v>-0.4202129553909266</v>
+        <v>-0.251106239676413</v>
       </c>
       <c r="AF20">
-        <v>-0.2700123717843234</v>
+        <v>-0.05580000013025554</v>
       </c>
       <c r="AG20">
-        <v>-0.05999999999998751</v>
+        <v>7.404515500624636E-15</v>
       </c>
     </row>
     <row r="21" spans="1:33">
@@ -2394,100 +2394,100 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-7.580669192050922</v>
+        <v>-3.565019132881372</v>
       </c>
       <c r="C21">
-        <v>-6.500956718990325</v>
+        <v>-3.046007957201375</v>
       </c>
       <c r="D21">
-        <v>-4.105806396883004</v>
+        <v>-2.038293400615004</v>
       </c>
       <c r="E21">
-        <v>-3.668439469250378</v>
+        <v>-1.914667557700163</v>
       </c>
       <c r="F21">
-        <v>-3.559902570560697</v>
+        <v>-1.866025624329593</v>
       </c>
       <c r="G21">
-        <v>-1.824402596239454</v>
+        <v>-0.880312161097629</v>
       </c>
       <c r="H21">
-        <v>-1.506049233359969</v>
+        <v>-0.6720537653018693</v>
       </c>
       <c r="I21">
-        <v>-1.234637523623813</v>
+        <v>-0.6027244824916604</v>
       </c>
       <c r="J21">
-        <v>-0.9342643744562797</v>
+        <v>-0.5336811118172413</v>
       </c>
       <c r="K21">
-        <v>-0.8611121207987382</v>
+        <v>-0.4897179618778791</v>
       </c>
       <c r="L21">
-        <v>-0.7908041805648236</v>
+        <v>-0.429759149483652</v>
       </c>
       <c r="M21">
-        <v>-0.794540670878101</v>
+        <v>-0.4427489707791115</v>
       </c>
       <c r="N21">
-        <v>-0.7325891748544701</v>
+        <v>-0.331972660087095</v>
       </c>
       <c r="O21">
-        <v>-0.2705029251465526</v>
+        <v>-0.2764872338117128</v>
       </c>
       <c r="P21">
-        <v>-0.2102615221015434</v>
+        <v>-0.2210563579024123</v>
       </c>
       <c r="Q21">
-        <v>-0.1500456435463099</v>
+        <v>-0.1656318810034041</v>
       </c>
       <c r="R21">
-        <v>-0.08999999999999435</v>
+        <v>-0.08280000000001632</v>
       </c>
       <c r="S21">
-        <v>0.5339088422448404</v>
+        <v>0.332011567318067</v>
       </c>
       <c r="T21">
-        <v>-0.4415429457281658</v>
+        <v>-0.2485012009312279</v>
       </c>
       <c r="U21">
-        <v>-0.3512050243161863</v>
+        <v>-0.1656305761763864</v>
       </c>
       <c r="V21">
-        <v>-0.2608900000000142</v>
+        <v>-0.08279999999996641</v>
       </c>
       <c r="W21">
-        <v>-1.989952459795516</v>
+        <v>-0.8291261114145114</v>
       </c>
       <c r="X21">
-        <v>-1.878129107281013</v>
+        <v>-0.4416172963899243</v>
       </c>
       <c r="Y21">
-        <v>-1.44533999999997</v>
+        <v>-0.05519999999960357</v>
       </c>
       <c r="Z21">
-        <v>-1.657559499228689</v>
+        <v>-0.7979055741451695</v>
       </c>
       <c r="AA21">
-        <v>-1.591212665866989</v>
+        <v>-0.7417179366622205</v>
       </c>
       <c r="AB21">
-        <v>-1.509163365849075</v>
+        <v>-0.6833651264376315</v>
       </c>
       <c r="AC21">
-        <v>-1.433562529571217</v>
+        <v>-0.5712820013721615</v>
       </c>
       <c r="AD21">
-        <v>-1.305271579398028</v>
+        <v>-0.3867938640865051</v>
       </c>
       <c r="AE21">
-        <v>-0.4202128734222622</v>
+        <v>-0.2484061039457997</v>
       </c>
       <c r="AF21">
-        <v>-0.2700123670139702</v>
+        <v>-0.05520000013029564</v>
       </c>
       <c r="AG21">
-        <v>-0.05999999999999638</v>
+        <v>4.611308793210825E-14</v>
       </c>
     </row>
     <row r="22" spans="1:33">
@@ -2495,100 +2495,100 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-7.583231772582741</v>
+        <v>-3.567070088454088</v>
       </c>
       <c r="C22">
-        <v>-6.503165266889946</v>
+        <v>-3.047910285156412</v>
       </c>
       <c r="D22">
-        <v>-4.107763250209213</v>
+        <v>-2.040093612661888</v>
       </c>
       <c r="E22">
-        <v>-3.670133838935191</v>
+        <v>-1.916361927371604</v>
       </c>
       <c r="F22">
-        <v>-3.559902570560805</v>
+        <v>-1.866025624330314</v>
       </c>
       <c r="G22">
-        <v>-1.824402596239413</v>
+        <v>-0.8803121610980991</v>
       </c>
       <c r="H22">
-        <v>-1.50604923335999</v>
+        <v>-0.6720537653023499</v>
       </c>
       <c r="I22">
-        <v>-1.234637523623837</v>
+        <v>-0.6027244824921334</v>
       </c>
       <c r="J22">
-        <v>-0.9342643744562691</v>
+        <v>-0.5336811118177172</v>
       </c>
       <c r="K22">
-        <v>-0.8611121207989999</v>
+        <v>-0.4897179618780794</v>
       </c>
       <c r="L22">
-        <v>-0.7908041805647842</v>
+        <v>-0.4297591494838519</v>
       </c>
       <c r="M22">
-        <v>-0.7945406708781131</v>
+        <v>-0.4427489707792893</v>
       </c>
       <c r="N22">
-        <v>-0.7325891748544414</v>
+        <v>-0.3319726600873059</v>
       </c>
       <c r="O22">
-        <v>-0.2705029251465823</v>
+        <v>-0.2764872338117643</v>
       </c>
       <c r="P22">
-        <v>-0.2102615221015433</v>
+        <v>-0.2210563579024781</v>
       </c>
       <c r="Q22">
-        <v>-0.1500456435463257</v>
+        <v>-0.1656318810034385</v>
       </c>
       <c r="R22">
-        <v>-0.08999999999997067</v>
+        <v>-0.08280000000002723</v>
       </c>
       <c r="S22">
-        <v>0.5339088442044378</v>
+        <v>0.3320115675330457</v>
       </c>
       <c r="T22">
-        <v>-0.4415429461522212</v>
+        <v>-0.2485012009580586</v>
       </c>
       <c r="U22">
-        <v>-0.3512050245208316</v>
+        <v>-0.1656305761845782</v>
       </c>
       <c r="V22">
-        <v>-0.2608900000000032</v>
+        <v>-0.08279999999997069</v>
       </c>
       <c r="W22">
-        <v>-1.989952549233418</v>
+        <v>-0.8291261125466949</v>
       </c>
       <c r="X22">
-        <v>-1.878129140406919</v>
+        <v>-0.4416172964073092</v>
       </c>
       <c r="Y22">
-        <v>-1.445340000000008</v>
+        <v>-0.05519999999962966</v>
       </c>
       <c r="Z22">
-        <v>-1.657559499228848</v>
+        <v>-0.7979055741446635</v>
       </c>
       <c r="AA22">
-        <v>-1.591212665866992</v>
+        <v>-0.7417179366624467</v>
       </c>
       <c r="AB22">
-        <v>-1.509163365849119</v>
+        <v>-0.6833651264376621</v>
       </c>
       <c r="AC22">
-        <v>-1.433562529571264</v>
+        <v>-0.5712820013722358</v>
       </c>
       <c r="AD22">
-        <v>-1.30527157939808</v>
+        <v>-0.3867938640865068</v>
       </c>
       <c r="AE22">
-        <v>-0.4202128734222664</v>
+        <v>-0.248406103945676</v>
       </c>
       <c r="AF22">
-        <v>-0.2700123670139947</v>
+        <v>-0.05520000013026263</v>
       </c>
       <c r="AG22">
-        <v>-0.05999999999996981</v>
+        <v>-3.002493633733943E-14</v>
       </c>
     </row>
     <row r="23" spans="1:33">
@@ -2596,100 +2596,100 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-7.631344815110575</v>
+        <v>-3.616309737623224</v>
       </c>
       <c r="C23">
-        <v>-6.543635482976565</v>
+        <v>-3.089672526653242</v>
       </c>
       <c r="D23">
-        <v>-4.132672694542869</v>
+        <v>-2.069671837339698</v>
       </c>
       <c r="E23">
-        <v>-3.691055379239325</v>
+        <v>-1.943358638810514</v>
       </c>
       <c r="F23">
-        <v>-3.576319873112556</v>
+        <v>-1.888108791271917</v>
       </c>
       <c r="G23">
-        <v>-1.832817897063371</v>
+        <v>-0.8915524991897081</v>
       </c>
       <c r="H23">
-        <v>-1.51334963893317</v>
+        <v>-0.6806744278388915</v>
       </c>
       <c r="I23">
-        <v>-1.241268642019997</v>
+        <v>-0.6103834132191905</v>
       </c>
       <c r="J23">
-        <v>-0.9384038515832014</v>
+        <v>-0.5403848015597267</v>
       </c>
       <c r="K23">
-        <v>-0.8651316463684259</v>
+        <v>-0.4959057502023095</v>
       </c>
       <c r="L23">
-        <v>-0.7945941412983472</v>
+        <v>-0.4352243087376241</v>
       </c>
       <c r="M23">
-        <v>-0.798274785060139</v>
+        <v>-0.4475742938744077</v>
       </c>
       <c r="N23">
-        <v>-0.7363042537436771</v>
+        <v>-0.335589694494848</v>
       </c>
       <c r="O23">
-        <v>-0.2705029742103138</v>
+        <v>-0.2794979783221795</v>
       </c>
       <c r="P23">
-        <v>-0.2102615476228008</v>
+        <v>-0.2234620122882432</v>
       </c>
       <c r="Q23">
-        <v>-0.1500456479973113</v>
+        <v>-0.1674325843187993</v>
       </c>
       <c r="R23">
-        <v>-0.09000000000000097</v>
+        <v>-0.0837000000000075</v>
       </c>
       <c r="S23">
-        <v>0.5357925936877377</v>
+        <v>0.3356293760836589</v>
       </c>
       <c r="T23">
-        <v>-0.4434083176075606</v>
+        <v>-0.2512034224050542</v>
       </c>
       <c r="U23">
-        <v>-0.3530669524750462</v>
+        <v>-0.1674312474514996</v>
       </c>
       <c r="V23">
-        <v>-0.2627474999999725</v>
+        <v>-0.08370000000000563</v>
       </c>
       <c r="W23">
-        <v>-2.001557471064479</v>
+        <v>-0.8381509264896873</v>
       </c>
       <c r="X23">
-        <v>-1.889474182395066</v>
+        <v>-0.4464176776363865</v>
       </c>
       <c r="Y23">
-        <v>-1.456485000000013</v>
+        <v>-0.05580000000000384</v>
       </c>
       <c r="Z23">
-        <v>-1.665403492436133</v>
+        <v>-0.8066544331702291</v>
       </c>
       <c r="AA23">
-        <v>-1.599009173281456</v>
+        <v>-0.7498448922343258</v>
       </c>
       <c r="AB23">
-        <v>-1.516789622623114</v>
+        <v>-0.6908221146330906</v>
       </c>
       <c r="AC23">
-        <v>-1.441064712628053</v>
+        <v>-0.5775016094225285</v>
       </c>
       <c r="AD23">
-        <v>-1.312702238037031</v>
+        <v>-0.3910026230128685</v>
       </c>
       <c r="AE23">
-        <v>-0.4202129553909608</v>
+        <v>-0.2511062396770648</v>
       </c>
       <c r="AF23">
-        <v>-0.2700123717843229</v>
+        <v>-0.05580000013041685</v>
       </c>
       <c r="AG23">
-        <v>-0.05999999999999067</v>
+        <v>2.183874274845037E-15</v>
       </c>
     </row>
     <row r="24" spans="1:33">
@@ -2697,100 +2697,100 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-7.378505429490172</v>
+        <v>-3.34992799537675</v>
       </c>
       <c r="C24">
-        <v>-6.331350018190401</v>
+        <v>-2.865597561359589</v>
       </c>
       <c r="D24">
-        <v>-4.009951670408327</v>
+        <v>-1.916953210828299</v>
       </c>
       <c r="E24">
-        <v>-3.588365487431005</v>
+        <v>-1.804329783442981</v>
       </c>
       <c r="F24">
-        <v>-3.478129064542417</v>
+        <v>-1.755989275209993</v>
       </c>
       <c r="G24">
-        <v>-1.782589673905002</v>
+        <v>-0.8244457390147449</v>
       </c>
       <c r="H24">
-        <v>-1.469706563537456</v>
+        <v>-0.6291544187839714</v>
       </c>
       <c r="I24">
-        <v>-1.201578606670061</v>
+        <v>-0.5645568993083537</v>
       </c>
       <c r="J24">
-        <v>-0.9136048715093288</v>
+        <v>-0.5002139300535178</v>
       </c>
       <c r="K24">
-        <v>-0.8410412490892858</v>
+        <v>-0.4588161768754634</v>
       </c>
       <c r="L24">
-        <v>-0.7718598966741099</v>
+        <v>-0.4024441456439535</v>
       </c>
       <c r="M24">
-        <v>-0.7758715845929254</v>
+        <v>-0.4186265603763641</v>
       </c>
       <c r="N24">
-        <v>-0.7140137807068463</v>
+        <v>-0.3138903190883552</v>
       </c>
       <c r="O24">
-        <v>-0.2705026800130477</v>
+        <v>-0.2614352982014968</v>
       </c>
       <c r="P24">
-        <v>-0.2102613945915316</v>
+        <v>-0.2090290268953442</v>
       </c>
       <c r="Q24">
-        <v>-0.150045621308025</v>
+        <v>-0.1566284815194073</v>
       </c>
       <c r="R24">
-        <v>-0.09000000000007223</v>
+        <v>-0.07829999999997636</v>
       </c>
       <c r="S24">
-        <v>0.5244920569552869</v>
+        <v>0.3139254487088431</v>
       </c>
       <c r="T24">
-        <v>-0.4322168540713811</v>
+        <v>-0.2349904587986199</v>
       </c>
       <c r="U24">
-        <v>-0.3418958673958095</v>
+        <v>-0.1566273302079649</v>
       </c>
       <c r="V24">
-        <v>-0.2516024999999699</v>
+        <v>-0.07829999999995621</v>
       </c>
       <c r="W24">
-        <v>-1.931979986623306</v>
+        <v>-0.7840061776651538</v>
       </c>
       <c r="X24">
-        <v>-1.821429398650828</v>
+        <v>-0.417615453852435</v>
       </c>
       <c r="Y24">
-        <v>-1.389615000000049</v>
+        <v>-0.05219999999975765</v>
       </c>
       <c r="Z24">
-        <v>-1.618374770941835</v>
+        <v>-0.7541865199004577</v>
       </c>
       <c r="AA24">
-        <v>-1.552261563318064</v>
+        <v>-0.7011046957703472</v>
       </c>
       <c r="AB24">
-        <v>-1.471049406565687</v>
+        <v>-0.6460898694313786</v>
       </c>
       <c r="AC24">
-        <v>-1.396058277701306</v>
+        <v>-0.5401872993336569</v>
       </c>
       <c r="AD24">
-        <v>-1.26811829979277</v>
+        <v>-0.3657515619860954</v>
       </c>
       <c r="AE24">
-        <v>-0.4202124652710334</v>
+        <v>-0.2349054484266393</v>
       </c>
       <c r="AF24">
-        <v>-0.2700123432605331</v>
+        <v>-0.05220000013058734</v>
       </c>
       <c r="AG24">
-        <v>-0.05999999999999397</v>
+        <v>1.192433519906045E-14</v>
       </c>
     </row>
     <row r="25" spans="1:33">
@@ -2798,100 +2798,100 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-6.764964666427973</v>
+        <v>-2.702595270140298</v>
       </c>
       <c r="C25">
-        <v>-5.813147898592061</v>
+        <v>-2.318181579627844</v>
       </c>
       <c r="D25">
-        <v>-3.71104779986899</v>
+        <v>-1.544011191775691</v>
       </c>
       <c r="E25">
-        <v>-3.335423219552807</v>
+        <v>-1.46168080296066</v>
       </c>
       <c r="F25">
-        <v>-3.235847858565392</v>
+        <v>-1.429559151432543</v>
       </c>
       <c r="G25">
-        <v>-1.659702972251635</v>
+        <v>-0.6600903787608025</v>
       </c>
       <c r="H25">
-        <v>-1.362221677148862</v>
+        <v>-0.5024305095043262</v>
       </c>
       <c r="I25">
-        <v>-1.103338166320887</v>
+        <v>-0.451284917396423</v>
       </c>
       <c r="J25">
-        <v>-0.8519943108286108</v>
+        <v>-0.4003107015319669</v>
       </c>
       <c r="K25">
-        <v>-0.7810890183777743</v>
+        <v>-0.3664728651602509</v>
       </c>
       <c r="L25">
-        <v>-0.7150821300995404</v>
+        <v>-0.3206066922429519</v>
       </c>
       <c r="M25">
-        <v>-0.7198791416927006</v>
+        <v>-0.3463012207841312</v>
       </c>
       <c r="N25">
-        <v>-0.6582876012393845</v>
+        <v>-0.2596714955923334</v>
       </c>
       <c r="O25">
-        <v>-0.2705019464639544</v>
+        <v>-0.2162972887855659</v>
       </c>
       <c r="P25">
-        <v>-0.210261013025396</v>
+        <v>-0.1729564043370507</v>
       </c>
       <c r="Q25">
-        <v>-0.1500455547612891</v>
+        <v>-0.1296194490792542</v>
       </c>
       <c r="R25">
-        <v>-0.09000000000000395</v>
+        <v>-0.06479999999999493</v>
       </c>
       <c r="S25">
-        <v>0.496260980736852</v>
+        <v>0.2596962460008326</v>
       </c>
       <c r="T25">
-        <v>-0.4042461546683552</v>
+        <v>-0.194461871850836</v>
       </c>
       <c r="U25">
-        <v>-0.313973184035909</v>
+        <v>-0.1296186924002529</v>
       </c>
       <c r="V25">
-        <v>-0.2237400000000077</v>
+        <v>-0.06479999999999318</v>
       </c>
       <c r="W25">
-        <v>-1.758565084609648</v>
+        <v>-0.64868739595234</v>
       </c>
       <c r="X25">
-        <v>-1.651577709697021</v>
+        <v>-0.3456105568489317</v>
       </c>
       <c r="Y25">
-        <v>-1.222440000000003</v>
+        <v>-0.04319999999995321</v>
       </c>
       <c r="Z25">
-        <v>-1.501169864445512</v>
+        <v>-0.623279909232773</v>
       </c>
       <c r="AA25">
-        <v>-1.435719837990876</v>
+        <v>-0.5794787422544005</v>
       </c>
       <c r="AB25">
-        <v>-1.356879255597916</v>
+        <v>-0.5343601919703891</v>
       </c>
       <c r="AC25">
-        <v>-1.283611573989199</v>
+        <v>-0.4469363080397394</v>
       </c>
       <c r="AD25">
-        <v>-1.156658594134658</v>
+        <v>-0.3026394592829629</v>
       </c>
       <c r="AE25">
-        <v>-0.4202112573947889</v>
+        <v>-0.1944037113168588</v>
       </c>
       <c r="AF25">
-        <v>-0.2700122729654452</v>
+        <v>-0.04320000013144697</v>
       </c>
       <c r="AG25">
-        <v>-0.06000000000001364</v>
+        <v>-1.565013358162327E-14</v>
       </c>
     </row>
   </sheetData>
